--- a/feedback_forms/current_versions/oil_and_gas_operator_feedback_v070_jinja_.xlsx
+++ b/feedback_forms/current_versions/oil_and_gas_operator_feedback_v070_jinja_.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one_drive\code\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDD25C8-D3C4-4084-9F67-FC2707B8E64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Ff9UBtrGP5I7eiuME2ah0N6ce5nyXu+GROe4gXff0TV9ltNroLUYQMBWk/0Ze+pt+0bxiP+wgn/TozXcLJs/dw==" workbookSaltValue="+DLcZX9ywbbwWlsIF7R+YQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B706A-FF33-4B17-A9CF-CF195352088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kjlmzu+Q6SFTogsx4Qi52aIyd+8jmZeb0EwHe9aMejtDjbzj4NdjjdeuWfsACHLWYXh5VX6pk8UjIKzypXD1rg==" workbookSaltValue="GL9SubWR9+G9ealuHbyojg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="5007" yWindow="2733" windowWidth="17413" windowHeight="11467" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="367" yWindow="367" windowWidth="17413" windowHeight="11466" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -863,27 +863,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Q14.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> If you answered 'Yes' to Q11, what was the initial leak concentration in ppmv (if applicable)?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1360,6 +1339,9 @@
     </r>
   </si>
   <si>
+    <t>oil_and_gas_v01_00</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1367,7 +1349,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Q24. </t>
+      <t xml:space="preserve">Q24.  </t>
     </r>
     <r>
       <rPr>
@@ -1379,7 +1361,25 @@
     </r>
   </si>
   <si>
-    <t>oil_and_gas_v01_00</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Q14.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  If you answered 'Yes' to Q11, what was the initial leak concentration in ppmv (if applicable)?</t>
+    </r>
   </si>
   <si>
     <t>{{ additional_notes }}</t>
@@ -1479,13 +1479,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1748,10 +1754,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1761,8 +1767,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1773,8 +1779,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1792,48 +1798,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1841,63 +1853,61 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1905,24 +1915,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3111,7 +3120,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
@@ -3897,7 +3908,7 @@
     </row>
     <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B32" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="48" t="s">
@@ -3908,7 +3919,7 @@
     </row>
     <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B33" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="48" t="s">
@@ -3919,7 +3930,7 @@
     </row>
     <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B34" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="53" t="s">
@@ -3930,7 +3941,7 @@
     </row>
     <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B35" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="48" t="s">
@@ -3941,7 +3952,7 @@
     </row>
     <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B36" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="48" t="s">
@@ -3952,7 +3963,7 @@
     </row>
     <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B37" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="53" t="s">
@@ -4069,7 +4080,7 @@
     </row>
     <row r="41" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B41" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="44"/>
       <c r="D41" s="54" t="s">
@@ -4080,7 +4091,7 @@
     </row>
     <row r="42" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B42" s="63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="54" t="s">
@@ -4091,7 +4102,7 @@
     </row>
     <row r="43" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B43" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C43" s="44"/>
       <c r="D43" s="54" t="s">
@@ -4102,7 +4113,7 @@
     </row>
     <row r="44" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B44" s="61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C44" s="44"/>
       <c r="D44" s="54" t="s">
@@ -4113,7 +4124,7 @@
     </row>
     <row r="45" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B45" s="61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C45" s="44"/>
       <c r="D45" s="54" t="s">
@@ -4380,7 +4391,7 @@
     </row>
     <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C56" s="44"/>
       <c r="D56" s="41" t="s">
@@ -4413,7 +4424,7 @@
     </row>
     <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="41" t="s">
@@ -4423,8 +4434,8 @@
       <c r="F59" s="44"/>
     </row>
     <row r="60" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="61" t="s">
-        <v>216</v>
+      <c r="B60" s="65" t="s">
+        <v>263</v>
       </c>
       <c r="C60" s="44"/>
       <c r="D60" s="58" t="s">
@@ -4435,7 +4446,7 @@
     </row>
     <row r="61" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B61" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" s="44"/>
       <c r="D61" s="58" t="s">
@@ -4446,7 +4457,7 @@
     </row>
     <row r="62" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B62" s="61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C62" s="44"/>
       <c r="D62" s="58" t="s">
@@ -4563,7 +4574,7 @@
     </row>
     <row r="66" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="41" t="s">
@@ -4574,7 +4585,7 @@
     </row>
     <row r="67" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C67" s="39"/>
       <c r="D67" s="58" t="s">
@@ -4585,7 +4596,7 @@
     </row>
     <row r="68" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="41" t="s">
@@ -4596,7 +4607,7 @@
     </row>
     <row r="69" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B69" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C69" s="39"/>
       <c r="D69" s="58" t="s">
@@ -4607,7 +4618,7 @@
     </row>
     <row r="70" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B70" s="61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C70" s="44"/>
       <c r="D70" s="57" t="s">
@@ -4618,7 +4629,7 @@
     </row>
     <row r="71" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B71" s="61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="44"/>
       <c r="D71" s="56" t="s">
@@ -4629,7 +4640,7 @@
     </row>
     <row r="72" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B72" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="58" t="s">
@@ -4688,7 +4699,7 @@
       <c r="F76" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8fkVStpBiJh+Oxa4i7qnfX0MNWcbLf6zgPeaMeFCDT6T5Ys/VoMBhesb9Uh53msCL9smKfN1ycZZHkk1pew1mw==" saltValue="7CzAgopZQxS3Ym8fRoaOXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sg8L3KUa1A5kogV/+51XRNXTP9fE7IoPVf7wcnRXOdgDEkB7vDNce8j9W1bBfPOpvLAKlxwKyatAn0RZ1+Wb1g==" saltValue="M3lhynQerU1ODzt4asg3nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="B27" r:id="rId1" display="1.  Click here for rulemaking process for the Amendments to the Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities " xr:uid="{D116D822-601E-41F0-9F34-2FD3CFC4D140}"/>
     <hyperlink ref="B28" r:id="rId2" display="2.  Click here for the Final Regulation Order Regarding Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities" xr:uid="{CE08B6F2-8BA5-48C8-8DD4-2087484EAC59}"/>
@@ -5077,7 +5088,7 @@
         <v>Resolved</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:18" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
@@ -5117,7 +5128,7 @@
         <v>Resolved</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:18" s="18" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
@@ -5201,7 +5212,7 @@
         <v>Resolved</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="57.35" x14ac:dyDescent="0.5">
@@ -5304,7 +5315,7 @@
         <v>Resolved</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="2:7" s="10" customFormat="1" ht="315.35000000000002" x14ac:dyDescent="0.5">
@@ -5321,7 +5332,7 @@
         <v>200</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
@@ -5329,7 +5340,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D42" s="16">
         <v>45742</v>
@@ -5418,7 +5429,7 @@
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VNK/1ZscTJHmorywYlG+su7dHSAT4ptjFgoLslNV6YFg8nuYo4GzWrFuhl1+GnY3btBLM0L6QBRxRBCPtXJSsg==" saltValue="4cXPf51Zngc4+rzVMOWq3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="97XGJZqnPLrnyFp1ZDNqhvLuu84sq49pt80GBICkIxBKY/H8VhnlxqzZOvumnt3NurqDlJccB9OR1mZZpMowkA==" saltValue="Zw6qd+R8YqyifvkwK5nzoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F48 F50:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$14</formula>
@@ -6634,7 +6645,7 @@
       <c r="Q92" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bc60w2oztNCCFfmwbbVtRnyIeh1VoLP07h3Z5QuqLgao8IKU9vKrnJtDmAFrPeKZMJ1EelrVqF/iKpW2PsXVog==" saltValue="57Mj5Vs/R6/P65PB1YrdeA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WzAZ/4z73VOOIPEktHOv0F2KjDoksz43Bvj7rkrzwb2nJN9I0sBdo2l8pmASrsTZs/50J0FCY1jiauEAOZ3Acw==" saltValue="gpBKbyKCRpyRZu69A7VPHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -6713,11 +6724,11 @@
         <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n4SM9lYz4DMy/w0A22GwEoj7Aoau40F7xz6J4wVgDNFR8icpBRqQub7/QkY+irM/Ievo5GDWKqMyy331HVnlQw==" saltValue="PuXY3K2VRlwxXApMVmlpjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8KQQFG+nfMmPQZeLtJndSrbtImvHZWrxfl3gE6Z8dEVtCas1r0FNTYVTzZunToOQzCxhe3DGPHTrywwzvZGulQ==" saltValue="D1eUgOV9SHHv+Ix6Y5c3BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6812,7 +6823,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j2b9xoznB+KWDM9RAa+rGHWM9xRHlViZxY+/krAAYm7Fj2Z3zjGMSs/QmTLQat91llekFzgOQoiZMv6E0LjhJg==" saltValue="MDb3H+6An/cZb1bzjnKP4w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1OQESvAVNTXb/El+WwwgrtySHcPP0jZJNRzNYwOYohksEE+VkvQGx7QXIiN8nVeCkNwPvKU/vJ75UYWC5pG/1w==" saltValue="HKGveFWVR1dzdRgCCnGD1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6922,7 +6933,7 @@
         <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
         <v>152</v>
@@ -6965,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.5">
@@ -7024,7 +7035,7 @@
         <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
         <v>161</v>
@@ -7050,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.5">
@@ -7058,7 +7069,7 @@
         <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
         <v>164</v>
@@ -7160,7 +7171,7 @@
         <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
         <v>176</v>
@@ -7177,7 +7188,7 @@
         <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s">
         <v>179</v>
@@ -7186,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.5">
@@ -7231,7 +7242,7 @@
         <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -7248,7 +7259,7 @@
         <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -7265,7 +7276,7 @@
         <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -7299,7 +7310,7 @@
         <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -7313,10 +7324,10 @@
         <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -7333,7 +7344,7 @@
         <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -7398,7 +7409,7 @@
         <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
         <v>195</v>
@@ -7415,7 +7426,7 @@
         <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
         <v>197</v>
@@ -7428,7 +7439,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="y2NpTvSqlMFvFpEQ6uR7Sm6H6fGd1/ghkeAFhPRLko18mo7mYOzfrMZArP6yYtVaawq9m80Fy7WGh3kkYPGAng==" saltValue="oOJzN9QU60bkKLPxkQn1Mg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7v3TkXHMEn1R/BC/qOnX53IvOdjiohvoFgVL5oe7GPjycMsJXfAY3ZT7HGYPlNVV6ddeO9B7YF6MWaXsCXfg3w==" saltValue="vLw+ZIRKpr83qgxFtClwqg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R40">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -7449,6 +7460,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7683,15 +7703,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
   <ds:schemaRefs>
@@ -7704,6 +7715,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7720,12 +7739,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/feedback_forms/current_versions/oil_and_gas_operator_feedback_v070_jinja_.xlsx
+++ b/feedback_forms/current_versions/oil_and_gas_operator_feedback_v070_jinja_.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one_drive\code\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597B706A-FF33-4B17-A9CF-CF195352088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kjlmzu+Q6SFTogsx4Qi52aIyd+8jmZeb0EwHe9aMejtDjbzj4NdjjdeuWfsACHLWYXh5VX6pk8UjIKzypXD1rg==" workbookSaltValue="GL9SubWR9+G9ealuHbyojg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F2D9F4-2684-46DF-9225-586820B5CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="k5S1uOVP9elYaHMxhI0XRQc9WK4LFIyFX8pEUgkGRQ0KIbeG2kZs3Wf5r20HwoQBJ5FQxtLAG4rHe/CeRf7vhw==" workbookSaltValue="DtDD9MXAxtWlmxEEwSdt1g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="367" yWindow="367" windowWidth="17413" windowHeight="11466" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="6127" yWindow="2127" windowWidth="19200" windowHeight="11760" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -1479,13 +1479,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1754,10 +1760,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1767,8 +1773,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1779,8 +1785,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1798,48 +1804,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1847,63 +1859,61 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1911,24 +1921,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3120,8 +3129,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -4240,7 +4249,7 @@
       </c>
     </row>
     <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="66" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="44"/>
@@ -4699,7 +4708,7 @@
       <c r="F76" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sg8L3KUa1A5kogV/+51XRNXTP9fE7IoPVf7wcnRXOdgDEkB7vDNce8j9W1bBfPOpvLAKlxwKyatAn0RZ1+Wb1g==" saltValue="M3lhynQerU1ODzt4asg3nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FVOeHfRhQfOGxqLLm9nmmp0TxwwJtoAzyIsJQCoRlMDXOMjjpDiisnLLSLNiSBy9bkdu6e2t/vHAu6p8nOe/3Q==" saltValue="wOUgy5dAjfG1AGy/AMoxaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="B27" r:id="rId1" display="1.  Click here for rulemaking process for the Amendments to the Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities " xr:uid="{D116D822-601E-41F0-9F34-2FD3CFC4D140}"/>
     <hyperlink ref="B28" r:id="rId2" display="2.  Click here for the Final Regulation Order Regarding Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities" xr:uid="{CE08B6F2-8BA5-48C8-8DD4-2087484EAC59}"/>
@@ -4709,7 +4718,7 @@
   <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B9E63D1-6ADB-4B23-9D34-4B60AC2FE861}">
           <x14:formula1>
             <xm:f>_carb_only!$B$12:$B$14</xm:f>
@@ -5429,7 +5438,7 @@
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="97XGJZqnPLrnyFp1ZDNqhvLuu84sq49pt80GBICkIxBKY/H8VhnlxqzZOvumnt3NurqDlJccB9OR1mZZpMowkA==" saltValue="Zw6qd+R8YqyifvkwK5nzoA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DV5Mgn71rY7T+9goq7NzYLUaAtpFp58eipIZFCDQ/asZvjGd0d8+QkKbgnY1O5H+1b8U9Cjg/ofdqzyjlENi+Q==" saltValue="ujQjeKbsUk9nPegAxGzXAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F48 F50:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$14</formula>
@@ -6645,7 +6654,7 @@
       <c r="Q92" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WzAZ/4z73VOOIPEktHOv0F2KjDoksz43Bvj7rkrzwb2nJN9I0sBdo2l8pmASrsTZs/50J0FCY1jiauEAOZ3Acw==" saltValue="gpBKbyKCRpyRZu69A7VPHw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BY8sI5Bx6mCduBItsGfr6Q9J/7bWWxw5rq0SnZ1kMEuIPPJiD8Xi6e0iKbPhlRulxCoRjfC/axDzu6Fu4YruBg==" saltValue="vi09r3X2S6L9HmqHWi1ddg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -6728,7 +6737,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8KQQFG+nfMmPQZeLtJndSrbtImvHZWrxfl3gE6Z8dEVtCas1r0FNTYVTzZunToOQzCxhe3DGPHTrywwzvZGulQ==" saltValue="D1eUgOV9SHHv+Ix6Y5c3BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8Ou2+6ExMmTEyjGuF+Fbkg3lLozH+ky+SWJW/iF5kga4N//zdum7vTSRfgWzw+Zz9zblH93QIj2tNWttS7qo8A==" saltValue="AtBwMJfwuZSs/9uitSvt8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6823,7 +6832,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1OQESvAVNTXb/El+WwwgrtySHcPP0jZJNRzNYwOYohksEE+VkvQGx7QXIiN8nVeCkNwPvKU/vJ75UYWC5pG/1w==" saltValue="HKGveFWVR1dzdRgCCnGD1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xgv9WPn3I6SOO1kMkt5eCQTMKei0HaFuxDNNyUdkQU0/HKVhBmjenzHftZRnsNZr7XRw8Uz2kJy8bHieyYvHEA==" saltValue="65YcWzvJK4odCQwPKCfKDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6834,8 +6843,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:R40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -7439,12 +7448,13 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7v3TkXHMEn1R/BC/qOnX53IvOdjiohvoFgVL5oe7GPjycMsJXfAY3ZT7HGYPlNVV6ddeO9B7YF6MWaXsCXfg3w==" saltValue="vLw+ZIRKpr83qgxFtClwqg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5Xwpai/oU7xfiiuBCPAmcKUgCtwe4RNp+3SJ+dhFLoNMJJFtXwCteRaMAPonsXnUqr/PTo72imuayHIhxsR7KA==" saltValue="UNNXBx3OmunZ1Akdik/zQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R40">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/feedback_forms/current_versions/oil_and_gas_operator_feedback_v070_jinja_.xlsx
+++ b/feedback_forms/current_versions/oil_and_gas_operator_feedback_v070_jinja_.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\one_drive\code\pycharm\feedback_portal\feedback_forms\current_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F2D9F4-2684-46DF-9225-586820B5CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="k5S1uOVP9elYaHMxhI0XRQc9WK4LFIyFX8pEUgkGRQ0KIbeG2kZs3Wf5r20HwoQBJ5FQxtLAG4rHe/CeRf7vhw==" workbookSaltValue="DtDD9MXAxtWlmxEEwSdt1g==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42959649-444E-4715-856F-1CE31C9B16A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BLmhz95HJaW/gDprs3191rke3OICY849yjAMShNtSX/bG9xKfViOm9sV8WNWPi2uudXQ64u+TMJqmzo/lbXg4g==" workbookSaltValue="PkzybHnn2Y2VD0OEfhtL9w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="6127" yWindow="2127" windowWidth="19200" windowHeight="11760" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="32100" yWindow="3315" windowWidth="21600" windowHeight="11100" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -3133,18 +3133,18 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" customWidth="1"/>
-    <col min="6" max="6" width="5.703125" style="25" customWidth="1"/>
-    <col min="7" max="8" width="5.703125" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="25" customWidth="1"/>
+    <col min="7" max="8" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3189,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="44"/>
     </row>
-    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
@@ -3198,14 +3198,14 @@
       <c r="E3" s="27"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29"/>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -3275,7 +3275,7 @@
       <c r="AF6" s="46"/>
       <c r="AG6" s="46"/>
     </row>
-    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="64" t="s">
         <v>3</v>
       </c>
@@ -3347,7 +3347,7 @@
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
     </row>
-    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
     </row>
-    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
         <v>5</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
     </row>
-    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="47" t="s">
         <v>6</v>
       </c>
@@ -3455,7 +3455,7 @@
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
     </row>
-    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>7</v>
       </c>
@@ -3491,7 +3491,7 @@
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
     </row>
-    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48" t="s">
         <v>8</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="44"/>
     </row>
-    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
         <v>9</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="44"/>
     </row>
-    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="50" t="s">
         <v>10</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="44"/>
     </row>
-    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="48" t="s">
         <v>11</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="44"/>
     </row>
-    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="48" t="s">
         <v>12</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="E17" s="34"/>
       <c r="F17" s="44"/>
     </row>
-    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="47" t="s">
         <v>13</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
     </row>
-    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="47" t="s">
         <v>14</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
     </row>
-    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>15</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
     </row>
-    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="s">
         <v>16</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="44"/>
     </row>
-    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
         <v>17</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="44"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -3698,10 +3698,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="44"/>
     </row>
-    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>18</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
     </row>
-    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="35" t="s">
         <v>19</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
     </row>
-    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="36" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -3879,7 +3879,7 @@
       <c r="AF30" s="52"/>
       <c r="AG30" s="52"/>
     </row>
-    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="62" t="s">
         <v>246</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
     </row>
-    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="62" t="s">
         <v>247</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
     </row>
-    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="62" t="s">
         <v>248</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="62" t="s">
         <v>249</v>
       </c>
@@ -3959,7 +3959,7 @@
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="62" t="s">
         <v>250</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
     </row>
-    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="60" t="s">
         <v>251</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
     </row>
-    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -4051,7 +4051,7 @@
       <c r="AF39" s="46"/>
       <c r="AG39" s="46"/>
     </row>
-    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="61" t="s">
         <v>252</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="E41" s="55"/>
       <c r="F41" s="44"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="63" t="s">
         <v>253</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="44"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="61" t="s">
         <v>254</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="44"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="61" t="s">
         <v>255</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="44"/>
     </row>
-    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="61" t="s">
         <v>256</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="44"/>
     </row>
-    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
@@ -4212,7 +4212,7 @@
       <c r="AF47" s="46"/>
       <c r="AG47" s="46"/>
     </row>
-    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:33" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="66" t="s">
         <v>26</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="E49" s="55"/>
       <c r="F49" s="44"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B50" s="37" t="s">
         <v>28</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="E50" s="55"/>
       <c r="F50" s="44"/>
     </row>
-    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
@@ -4340,7 +4340,7 @@
       <c r="AF52" s="46"/>
       <c r="AG52" s="46"/>
     </row>
-    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:33" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="61" t="s">
         <v>211</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="E54" s="38"/>
       <c r="F54" s="44"/>
     </row>
-    <row r="55" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="61" t="s">
         <v>213</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="E55" s="38"/>
       <c r="F55" s="44"/>
     </row>
-    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="61" t="s">
         <v>244</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="E56" s="38"/>
       <c r="F56" s="44"/>
     </row>
-    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="61" t="s">
         <v>212</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="E57" s="38"/>
       <c r="F57" s="44"/>
     </row>
-    <row r="58" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="61" t="s">
         <v>214</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="E58" s="38"/>
       <c r="F58" s="44"/>
     </row>
-    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="61" t="s">
         <v>243</v>
       </c>
@@ -4442,7 +4442,7 @@
       <c r="E59" s="38"/>
       <c r="F59" s="44"/>
     </row>
-    <row r="60" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="15" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B60" s="65" t="s">
         <v>263</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="E60" s="38"/>
       <c r="F60" s="44"/>
     </row>
-    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="15" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>216</v>
       </c>
@@ -4464,7 +4464,7 @@
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
     </row>
-    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="15" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B62" s="61" t="s">
         <v>257</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
     </row>
-    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
@@ -4545,7 +4545,7 @@
       <c r="AF64" s="46"/>
       <c r="AG64" s="46"/>
     </row>
-    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:33" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="37" t="s">
         <v>245</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="44"/>
     </row>
-    <row r="67" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:33" s="15" customFormat="1" ht="32.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="61" t="s">
         <v>218</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="E67" s="40"/>
       <c r="F67" s="44"/>
     </row>
-    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="37" t="s">
         <v>220</v>
       </c>
@@ -4614,7 +4614,7 @@
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
     </row>
-    <row r="69" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:33" s="15" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B69" s="61" t="s">
         <v>221</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
     </row>
-    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="61" t="s">
         <v>258</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
     </row>
-    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="61" t="s">
         <v>259</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="E71" s="44"/>
       <c r="F71" s="44"/>
     </row>
-    <row r="72" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="37" t="s">
         <v>260</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="E72" s="44"/>
       <c r="F72" s="44"/>
     </row>
-    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -4694,10 +4694,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="44"/>
     </row>
-    <row r="76" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:33" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="37" t="s">
         <v>262</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="F76" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FVOeHfRhQfOGxqLLm9nmmp0TxwwJtoAzyIsJQCoRlMDXOMjjpDiisnLLSLNiSBy9bkdu6e2t/vHAu6p8nOe/3Q==" saltValue="wOUgy5dAjfG1AGy/AMoxaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="khP0cbmhM1ZWtvRBoTNSch8WxedTu6nQOS4rz3pOjgRXJrqF5p2JvF/5cJIaqZ6JhlunddC/rZQJDCJToQXGyQ==" saltValue="zL994hv9Yo+67V0mjmDxDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="B27" r:id="rId1" display="1.  Click here for rulemaking process for the Amendments to the Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities " xr:uid="{D116D822-601E-41F0-9F34-2FD3CFC4D140}"/>
     <hyperlink ref="B28" r:id="rId2" display="2.  Click here for the Final Regulation Order Regarding Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities" xr:uid="{CE08B6F2-8BA5-48C8-8DD4-2087484EAC59}"/>
@@ -4764,25 +4764,25 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="10.703125" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G3" s="17"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -4796,7 +4796,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4804,15 +4804,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>37</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="D13" s="16"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>41</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="D14" s="16"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>43</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="D15" s="16"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
@@ -4877,7 +4877,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G19" s="17"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -4891,7 +4891,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>48</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>1</v>
       </c>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>2</v>
       </c>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>3</v>
       </c>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>4</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>5</v>
       </c>
@@ -5018,7 +5018,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>6</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>7</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>8</v>
       </c>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:18" s="18" customFormat="1" ht="129" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>9</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="18" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>10</v>
       </c>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="2:18" s="18" customFormat="1" ht="301" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="18" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>11</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="2:18" s="18" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>12</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>13</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>14</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="18" customFormat="1" ht="272.35000000000002" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="18" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>15</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>16</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>17</v>
       </c>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" s="18" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>18</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>19</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>20</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" ht="315.35000000000002" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>21</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>22</v>
       </c>
@@ -5363,82 +5363,82 @@
       </c>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="3:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="15"/>
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DV5Mgn71rY7T+9goq7NzYLUaAtpFp58eipIZFCDQ/asZvjGd0d8+QkKbgnY1O5H+1b8U9Cjg/ofdqzyjlENi+Q==" saltValue="ujQjeKbsUk9nPegAxGzXAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vOj+wkk7qtYFJZsdDsqKP0ZF+cy7pbjwKDLFgzHdO7jJ7r2tgUq32UjyUGzC3XatFxS6jxizwUxJjt26JRaqCg==" saltValue="6DYxQWOEMBFjCu/4FdAGDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F48 F50:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$14</formula>
@@ -5461,14 +5461,14 @@
       <selection activeCell="B69" sqref="B69:B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="91.29296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.1171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -5482,12 +5482,12 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:17" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -5501,7 +5501,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -5539,7 +5539,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5553,7 +5553,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>96</v>
       </c>
@@ -5570,7 +5570,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5585,7 +5585,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -5636,7 +5636,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -5650,7 +5650,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -5664,7 +5664,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -5678,7 +5678,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>201</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -5709,7 +5709,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -5726,7 +5726,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>206</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>202</v>
       </c>
@@ -5777,7 +5777,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>203</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>204</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>205</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -5842,7 +5842,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>209</v>
       </c>
@@ -5859,7 +5859,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -5873,7 +5873,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>207</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>98</v>
       </c>
@@ -5924,7 +5924,7 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>208</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>203</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>204</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>205</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -6023,7 +6023,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>210</v>
       </c>
@@ -6040,7 +6040,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -6054,7 +6054,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>207</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>98</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>208</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>202</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>203</v>
       </c>
@@ -6156,7 +6156,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -6170,7 +6170,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -6184,7 +6184,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>99</v>
       </c>
@@ -6201,7 +6201,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -6216,7 +6216,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -6233,7 +6233,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>100</v>
       </c>
@@ -6250,7 +6250,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>101</v>
       </c>
@@ -6267,7 +6267,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>102</v>
       </c>
@@ -6284,7 +6284,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>103</v>
       </c>
@@ -6301,7 +6301,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>104</v>
       </c>
@@ -6318,7 +6318,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>105</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>106</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>107</v>
       </c>
@@ -6369,7 +6369,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>108</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>109</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>110</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>111</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>112</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -6468,7 +6468,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>113</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -6500,7 +6500,7 @@
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>30</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>114</v>
       </c>
@@ -6534,70 +6534,70 @@
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>125</v>
       </c>
@@ -6614,32 +6614,32 @@
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -6654,7 +6654,7 @@
       <c r="Q92" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BY8sI5Bx6mCduBItsGfr6Q9J/7bWWxw5rq0SnZ1kMEuIPPJiD8Xi6e0iKbPhlRulxCoRjfC/axDzu6Fu4YruBg==" saltValue="vi09r3X2S6L9HmqHWi1ddg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8YZn53Gen5tIdAdZ6mGaYps8bkG4oLD+Ag9Xhu3EOgptArAFpodZ6G+PQcZt7d+9Qc/Ct0lEkhCmQ+Zfsy2/SQ==" saltValue="2sLKbqpb0NLOHe1FqaKu4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -6676,19 +6676,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>135</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>137</v>
       </c>
@@ -6737,7 +6737,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8Ou2+6ExMmTEyjGuF+Fbkg3lLozH+ky+SWJW/iF5kga4N//zdum7vTSRfgWzw+Zz9zblH93QIj2tNWttS7qo8A==" saltValue="AtBwMJfwuZSs/9uitSvt8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jMw7ZokX+aEBhKS/kFvDCTj0HAbTlUx+XF3jz5jv6PDn35vvww8BR+vTwsgWUKKbqjzh/C+TDRYzuuY2W982Og==" saltValue="PiRIuSbjgaO01z6PO24aiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6751,18 +6751,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6794,12 +6794,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>141</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>143</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>145</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>146</v>
       </c>
@@ -6832,7 +6832,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xgv9WPn3I6SOO1kMkt5eCQTMKei0HaFuxDNNyUdkQU0/HKVhBmjenzHftZRnsNZr7XRw8Uz2kJy8bHieyYvHEA==" saltValue="65YcWzvJK4odCQwPKCfKDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u1kFbtllN9/MmtkEs3Xsoq90Ds93HMkPojJC6cnnCrwvIRmy+My6ztOXPyP1KajDWciVERQ61C7VLhl7pMSRAg==" saltValue="GuNH1VFRIOWC7rI3KdxhXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6844,20 +6844,20 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A11" sqref="A11:R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="19.5859375" customWidth="1"/>
-    <col min="3" max="3" width="10.1171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.1171875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>147</v>
       </c>
@@ -6865,7 +6865,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="14"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="F2" s="9"/>
       <c r="G2" s="17"/>
@@ -6881,7 +6881,7 @@
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6892,35 +6892,35 @@
       <c r="F3" s="9"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:18" s="8" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:18" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>135</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>137</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>137</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>137</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>137</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>137</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>137</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>137</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>137</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>137</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>137</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>137</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>1000011</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>137</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>137</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>137</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>137</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>137</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>137</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>137</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>137</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>137</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>137</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>137</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>137</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>137</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>137</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>137</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>45159.666666666664</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>137</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>137</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>137</v>
       </c>
@@ -7448,7 +7448,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5Xwpai/oU7xfiiuBCPAmcKUgCtwe4RNp+3SJ+dhFLoNMJJFtXwCteRaMAPonsXnUqr/PTo72imuayHIhxsR7KA==" saltValue="UNNXBx3OmunZ1Akdik/zQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VDzoinOqhDVZhUJkZRBAKJOmqORoq0dx9y4dLvLOY+No7jxN3Tx0UutxpAM6wrbzPyjdbD2eFMxK7xL++X2ccQ==" saltValue="EWw4eN9L1GAxSFB1ZriuCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R40">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>

--- a/feedback_forms/current_versions/oil_and_gas_operator_feedback_v070_jinja_.xlsx
+++ b/feedback_forms/current_versions/oil_and_gas_operator_feedback_v070_jinja_.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74E8478-C899-4D55-BF4A-A7E04CF32177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7f6sX34os1L892rZIuqOCHiMj0wnGsdmhmQVMypazVo/cj1V0IRjqxWSoCHgA61cwfwiMnMUpqoT+U8KYY3yQQ==" workbookSaltValue="QjIE/RWz496oDMkgP360OA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABAA3D5-C0D3-4DA9-A30B-9BFFA65B1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Zhif8xWJaaT59PJC6XZoiOIMEFGhshymHXermg9Z6T+783lTHl9y1WBD9JGUGcTG5BH05UvoqkoKPFFiU+tS0g==" workbookSaltValue="ffl06+cUclpuK/XVyrMBKw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="6033" yWindow="2773" windowWidth="19200" windowHeight="11387" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="5387" yWindow="2813" windowWidth="19200" windowHeight="11387" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <definedName name="jinja_venting_description_2">'Feedback Form'!$D$61</definedName>
     <definedName name="jinja_venting_exclusion">'Feedback Form'!$D$49</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4751,7 +4751,7 @@
       <c r="F76" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RTYsb+P1llN8G7LDyiO/t4LnnNU4yupiL497uDcH5z+U0LrYmB+VWSymViwDydUhtE9/8ETvokVqCpRlpRog8g==" saltValue="0lQYz+don5joTgHG4WKwxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aOXtlKoXYlh2PliHmcoyMnM7hbX1WE+WCvCKLAEMR/ueXK2skapwHaALpVn/YuYBOsEeWOdhxGmVyatZU17e+g==" saltValue="PPua04P/4a/Zeqt5p6Xl7g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="B27" r:id="rId1" display="1.  Click here for rulemaking process for the Amendments to the Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities " xr:uid="{D116D822-601E-41F0-9F34-2FD3CFC4D140}"/>
     <hyperlink ref="B28" r:id="rId2" display="2.  Click here for the Final Regulation Order Regarding Greenhouse Gas Emission Standards for Crude Oil and Natural Gas Facilities" xr:uid="{CE08B6F2-8BA5-48C8-8DD4-2087484EAC59}"/>
@@ -4944,7 +4944,7 @@
       <c r="D26" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ejv/NAwLf0UnQf4PDP3DqJ3Ru9jUe7MFLRiX9JYMPc8+RP/k4XRJiYv8/sTe8e7Gt1LdmVpTnKMRqnb108fyfQ==" saltValue="waK01ElnzU4azvjbAXdPyw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RKmW9rHQ1ymNrQtujoH3q+Xgxq0ziv4NYHvJmZP4ximWA2vZkSv2qJIOUNJ87E7+msBlEPXY6weWsJgbS3v2aA==" saltValue="sbtOJtzAFE+pLLuI7V4f9g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -5636,7 +5636,7 @@
       <c r="G60" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AxixE53ClJGpuMrRkySwk+eNKBctaUe/u8Q3+ScP2muvP6sL88zdMOYoVf1XEY5NIuzwm80v1t3UDJiHe8Eg5g==" saltValue="J1wCZlICVPgvUhPauE/xGw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ODOFm9UHHHEpULdIIllN0exEt6aI9wwAwn26gkDzkyuMsDkzpfK0kST3m3jRMSp5ShIYKUUT6QAqdH4Im0cqWQ==" saltValue="SmRM5XaJziFn4ovKOQjq5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F48 F50:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$14</formula>
@@ -6852,7 +6852,7 @@
       <c r="Q92" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sAzuy6jCbwKcUy7OtqdCAsmo7lCcdnNh7UDSPOD3fvyylU0mGJJ5bbEusGy2+PwtWWKZeEx9P0eZ6IiQhvfhAA==" saltValue="/sv2YTEtf8tmrwGI2qsF0A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ff7imswFjg+B0c4gj3+KHypPyY7Izw81mJV+Ior7sY+Ll8OgbRrB6BK1vgxAzuFaWh70vkDFEV9/bnhZxfeQng==" saltValue="TINp1ddeYIzuaVGsjmu/Dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="7">
@@ -6937,7 +6937,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1dTtbL+uO2XoOlv5v69B8C1Wft611rJn4ab/eGClv/rGKh0joy75vAmjd1htzZ/x5eBApvPmT+dpfb2/dL4T2A==" saltValue="DstFRtTpFcZndTbVaS7I8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5/8nuYwXAD40kg4BmhTCYfOIG6rjJTQ8fTgOBWemu0k0AQbtQ4nwrj9ndnvVS1zZJx2konDFGnmi09EY3GCLRA==" saltValue="far3PIWXJXpzSff/56T9EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7032,7 +7032,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8gsJZ4zFPxFb49/ct8ov5G+U2v54Gm+sPOszXPOesc8f0p8XZLAJdQ8R2qe17Ajds1tvXL04vce5nZ88AjpJSQ==" saltValue="TlBeXgIzTPhNv5FNVWSQ9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eRjSrkweOWCy9B7khg5gQh2kjs11qPdST05Rcgl2JhtV5t4vYzgfEzxsHverAPW9vbS7gOkRlw42wkr+wqg0Zg==" saltValue="n4vQ8U4xJF6LhfA/4rrzaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7648,7 +7648,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZuE5rx7pTt56QnRe3SdJRDauVSZYaO0gJ3GREbjbpdBvuntipPEDYnMydTduj7H1itigX3++8kS98VzdqJWE+A==" saltValue="GVVPPNSVV/t7SV6DIUYW2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="om/gAnF0mtcYKj9ITVP9Z0o3qBI41ALFqb9YRBOlfe5AJiKOUB6zQfrJdStORkeLgxVN2Qb7ylrU42LgxBSetQ==" saltValue="bVi3L+wNU6uAPAh7QzSOTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:R40">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -7659,17 +7659,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7678,7 +7667,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7913,18 +7902,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -7932,7 +7921,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7949,4 +7938,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>